--- a/DS/TestDemo.xlsx
+++ b/DS/TestDemo.xlsx
@@ -1,36 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProject\EasySelenium\DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A20124-7442-42D8-B9F7-BBC5A480D70F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46DF46E-6C43-4D90-95B4-832FAC34CCFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>参数名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +85,26 @@
   </si>
   <si>
     <t>方块不应显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.baidu.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索特斯汀学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特斯汀学院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,10 +157,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -428,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -503,4 +520,76 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA5231E-0AE1-4699-A1F8-3882763A34DE}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{EC295AA2-764E-406D-A921-71A92D0FC9F1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/DS/TestDemo.xlsx
+++ b/DS/TestDemo.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProject\EasySelenium\DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46DF46E-6C43-4D90-95B4-832FAC34CCFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C685F0-EC2D-4AFC-A272-619BB9592163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>参数名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +106,30 @@
   </si>
   <si>
     <t>特斯汀学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA5231E-0AE1-4699-A1F8-3882763A34DE}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -592,4 +617,76 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DF0801-BFE1-4C6B-A471-B39F02098D6E}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>